--- a/data/forma_pr.xlsx
+++ b/data/forma_pr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0448EE41-EF47-4A0E-AB3D-E49F399A0B52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A07C3C-78F1-412D-8AAC-5E1510C6891E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +661,7 @@
         <v>30615.210912099999</v>
       </c>
       <c r="F5" s="2">
-        <v>378091.49144016969</v>
+        <v>378091.86347555893</v>
       </c>
       <c r="G5" s="2">
         <v>38650.763696000009</v>
@@ -692,7 +692,7 @@
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6">
         <v>123661.77577379883</v>
       </c>
       <c r="G6" s="2">
@@ -981,7 +981,7 @@
         <v>20919.464090720001</v>
       </c>
       <c r="F15" s="2">
-        <v>354171.1623164026</v>
+        <v>354171.50838907313</v>
       </c>
       <c r="G15" s="2">
         <v>39273.658325000011</v>
@@ -1141,7 +1141,7 @@
         <v>15329.041958640002</v>
       </c>
       <c r="F20" s="2">
-        <v>350683.14054184273</v>
+        <v>350683.44765434955</v>
       </c>
       <c r="G20" s="2">
         <v>43156.430016000006</v>
@@ -1301,7 +1301,7 @@
         <v>10114.29555832</v>
       </c>
       <c r="F25" s="2">
-        <v>361684.23305741593</v>
+        <v>361684.42839035933</v>
       </c>
       <c r="G25" s="2">
         <v>46459.937735999985</v>
@@ -1461,7 +1461,7 @@
         <v>26.352798199999999</v>
       </c>
       <c r="F30" s="2">
-        <v>344586.37633554853</v>
+        <v>344586.54493832408</v>
       </c>
       <c r="G30" s="2">
         <v>42979.015800000016</v>
@@ -1525,7 +1525,7 @@
         <v>64.406376319999993</v>
       </c>
       <c r="F32" s="2">
-        <v>1762.0252549510528</v>
+        <v>1918.3988340409351</v>
       </c>
       <c r="G32" s="2">
         <v>135.7808</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="2">
-        <v>15561.020389513491</v>
+        <v>16942.006527913905</v>
       </c>
       <c r="G33" s="2">
         <v>29870.510399999999</v>
@@ -1589,7 +1589,7 @@
         <v>576.84197900000004</v>
       </c>
       <c r="F34" s="2">
-        <v>20612.904306865144</v>
+        <v>22442.227475102762</v>
       </c>
       <c r="G34" s="2">
         <v>2384.752</v>
@@ -1621,7 +1621,7 @@
         <v>172.984724</v>
       </c>
       <c r="F35" s="2">
-        <v>341551.16689943994</v>
+        <v>371858.81673632929</v>
       </c>
       <c r="G35" s="2">
         <v>40899.943200000023</v>
@@ -1653,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="2">
-        <v>110744.38534045068</v>
+        <v>120572.562235836</v>
       </c>
       <c r="G36" s="2">
         <v>43025.156799999997</v>
@@ -1781,7 +1781,7 @@
         <v>129.189188</v>
       </c>
       <c r="F40" s="2">
-        <v>376095.49826558318</v>
+        <v>376095.50883206091</v>
       </c>
       <c r="G40" s="2">
         <v>40421.249000000003</v>
@@ -1941,7 +1941,7 @@
         <v>11.463844600000002</v>
       </c>
       <c r="F45" s="2">
-        <v>366767.91381124925</v>
+        <v>366767.9169788835</v>
       </c>
       <c r="G45" s="2">
         <v>40240.337500000001</v>
@@ -2101,7 +2101,7 @@
         <v>15.250094799999999</v>
       </c>
       <c r="F50" s="2">
-        <v>385884.79414768337</v>
+        <v>385884.80354058166</v>
       </c>
       <c r="G50" s="2">
         <v>42240.355000000018</v>
